--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-trialuse</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-13T14:50:01+02:00</t>
+    <t>2023-11-16T14:46:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -124,6 +125,15 @@
   </si>
   <si>
     <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>726528006</t>
+  </si>
+  <si>
+    <t>Genotyping (qualifier value)</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -445,4 +455,53 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>Microbial susceptibility tests Set</t>
+  </si>
+  <si>
+    <t>18727-8</t>
+  </si>
+  <si>
+    <t>Serology studies (set)</t>
   </si>
   <si>
     <t/>
@@ -402,7 +408,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -441,15 +447,23 @@
         <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -479,26 +493,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-lab-study-types.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
